--- a/networks/docs/Projects.xlsx
+++ b/networks/docs/Projects.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\SANDAG\SANDAG\check_projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\SANDAG\SANDAG\check_projects\networks\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,6 +17,12 @@
     <sheet name="Freeway &amp; Highway Projects" sheetId="3" r:id="rId3"/>
     <sheet name="Operational Projects" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Freeway &amp; Highway Projects'!$F$1:$I$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">managed_lanes!$F$1:$H$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Operational Projects'!$F$1:$H$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Tollway projects'!$F$1:$I$9</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1021,17 +1027,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="37.28515625" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" customWidth="1"/>
     <col min="5" max="5" width="31" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
@@ -1070,7 +1077,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1099,7 +1106,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1157,7 +1164,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1186,7 +1193,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1215,7 +1222,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1244,7 +1251,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1273,7 +1280,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1302,7 +1309,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1331,7 +1338,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1360,7 +1367,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1387,7 +1394,7 @@
       </c>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1416,7 +1423,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1442,7 +1449,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1471,7 +1478,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1500,7 +1507,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1529,7 +1536,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1558,7 +1565,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -1587,7 +1594,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -1616,7 +1623,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -1640,7 +1647,7 @@
       </c>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>52</v>
       </c>
@@ -1669,7 +1676,7 @@
         <v>39683</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>55</v>
       </c>
@@ -1698,7 +1705,7 @@
         <v>55686</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -1727,7 +1734,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>59</v>
       </c>
@@ -1756,7 +1763,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>59</v>
       </c>
@@ -1785,7 +1792,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>62</v>
       </c>
@@ -1814,7 +1821,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -1843,7 +1850,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -1872,7 +1879,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -1901,7 +1908,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -1930,7 +1937,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -1959,7 +1966,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -1988,7 +1995,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -2017,7 +2024,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>73</v>
       </c>
@@ -2046,7 +2053,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>73</v>
       </c>
@@ -2075,7 +2082,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -2104,7 +2111,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>46</v>
       </c>
@@ -2133,7 +2140,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>46</v>
       </c>
@@ -2162,7 +2169,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>58</v>
       </c>
@@ -2191,7 +2198,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>58</v>
       </c>
@@ -2220,7 +2227,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>31</v>
       </c>
@@ -2249,7 +2256,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>31</v>
       </c>
@@ -2278,7 +2285,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>31</v>
       </c>
@@ -2307,7 +2314,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>31</v>
       </c>
@@ -2336,7 +2343,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>31</v>
       </c>
@@ -2365,7 +2372,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>31</v>
       </c>
@@ -2394,7 +2401,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>31</v>
       </c>
@@ -2414,7 +2421,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>31</v>
       </c>
@@ -2443,7 +2450,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>31</v>
       </c>
@@ -2472,7 +2479,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>31</v>
       </c>
@@ -2501,7 +2508,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>31</v>
       </c>
@@ -2530,7 +2537,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>31</v>
       </c>
@@ -2559,7 +2566,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>31</v>
       </c>
@@ -2588,7 +2595,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>31</v>
       </c>
@@ -2618,6 +2625,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="F1:H55">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="2035"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2627,8 +2641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:D5"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2636,7 +2650,7 @@
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
     <col min="5" max="5" width="25.140625" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="10.140625" bestFit="1" customWidth="1"/>
@@ -2899,6 +2913,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="F1:I9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2908,7 +2923,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3013,7 +3028,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
         <v>56</v>
@@ -3042,7 +3057,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
         <v>56</v>
@@ -3209,16 +3224,18 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="F1:I10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+      <selection activeCell="F1" sqref="F1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3259,7 +3276,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -3285,7 +3302,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>128</v>
       </c>
@@ -3314,7 +3331,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -3340,7 +3357,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>131</v>
       </c>
@@ -3369,7 +3386,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>128</v>
       </c>
@@ -3398,7 +3415,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -3421,7 +3438,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3444,7 +3461,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3473,7 +3490,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -3499,7 +3516,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>143</v>
       </c>
@@ -3528,7 +3545,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>143</v>
       </c>
@@ -3557,7 +3574,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>55</v>
       </c>
@@ -3583,7 +3600,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>150</v>
       </c>
@@ -3612,7 +3629,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>151</v>
       </c>
@@ -3641,7 +3658,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -3667,7 +3684,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>157</v>
       </c>
@@ -3696,7 +3713,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>158</v>
       </c>
@@ -3725,7 +3742,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>157</v>
       </c>
@@ -3754,7 +3771,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -3780,7 +3797,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -4006,7 +4023,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>46</v>
       </c>
@@ -4032,7 +4049,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -4058,7 +4075,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -4084,7 +4101,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>184</v>
       </c>
@@ -4113,7 +4130,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -4139,7 +4156,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>185</v>
       </c>
@@ -4168,7 +4185,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>185</v>
       </c>
@@ -4197,7 +4214,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>185</v>
       </c>
@@ -4279,6 +4296,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="F1:H38">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="2035"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/networks/docs/Projects.xlsx
+++ b/networks/docs/Projects.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11685" windowHeight="7395" activeTab="3"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="11685" windowHeight="7395"/>
   </bookViews>
   <sheets>
     <sheet name="managed_lanes" sheetId="1" r:id="rId1"/>
@@ -1027,11 +1027,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1077,7 +1076,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1106,7 +1105,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1164,7 +1163,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1193,7 +1192,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1222,7 +1221,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1251,7 +1250,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1280,7 +1279,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1309,7 +1308,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1338,7 +1337,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1367,7 +1366,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1394,7 +1393,7 @@
       </c>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1423,7 +1422,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1449,7 +1448,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1478,7 +1477,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1507,7 +1506,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1536,7 +1535,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1565,7 +1564,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -1594,7 +1593,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -1623,7 +1622,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -1647,7 +1646,7 @@
       </c>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>52</v>
       </c>
@@ -1676,7 +1675,7 @@
         <v>39683</v>
       </c>
     </row>
-    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>55</v>
       </c>
@@ -1705,7 +1704,7 @@
         <v>55686</v>
       </c>
     </row>
-    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -1734,7 +1733,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>59</v>
       </c>
@@ -1763,7 +1762,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>59</v>
       </c>
@@ -1792,7 +1791,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>62</v>
       </c>
@@ -1821,7 +1820,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -1850,7 +1849,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -1879,7 +1878,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -1908,7 +1907,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -1937,7 +1936,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -1966,7 +1965,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -1995,7 +1994,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -2024,7 +2023,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>73</v>
       </c>
@@ -2053,7 +2052,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>73</v>
       </c>
@@ -2082,7 +2081,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -2111,7 +2110,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>46</v>
       </c>
@@ -2140,7 +2139,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>46</v>
       </c>
@@ -2169,7 +2168,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>58</v>
       </c>
@@ -2198,7 +2197,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>58</v>
       </c>
@@ -2227,7 +2226,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>31</v>
       </c>
@@ -2256,7 +2255,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>31</v>
       </c>
@@ -2285,7 +2284,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>31</v>
       </c>
@@ -2314,7 +2313,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>31</v>
       </c>
@@ -2343,7 +2342,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>31</v>
       </c>
@@ -2372,7 +2371,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>31</v>
       </c>
@@ -2401,7 +2400,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>31</v>
       </c>
@@ -2421,7 +2420,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>31</v>
       </c>
@@ -2450,7 +2449,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>31</v>
       </c>
@@ -2479,7 +2478,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>31</v>
       </c>
@@ -2508,7 +2507,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>31</v>
       </c>
@@ -2537,7 +2536,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>31</v>
       </c>
@@ -2566,7 +2565,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>31</v>
       </c>
@@ -2595,7 +2594,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>31</v>
       </c>
@@ -2625,13 +2624,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="F1:H55">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="2035"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="F1:H55"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2641,7 +2634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1:I1048576"/>
     </sheetView>
   </sheetViews>
@@ -3234,7 +3227,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1:H1048576"/>
     </sheetView>
   </sheetViews>
